--- a/cypress/fixtures/excel_data.xlsx
+++ b/cypress/fixtures/excel_data.xlsx
@@ -27,12 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>itemClass</t>
   </si>
   <si>
+    <t>editItemClass</t>
+  </si>
+  <si>
     <t>Beverages</t>
+  </si>
+  <si>
+    <t>Desserts</t>
   </si>
 </sst>
 </file>
@@ -45,14 +51,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,148 +507,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -974,22 +973,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/excel_data.xlsx
+++ b/cypress/fixtures/excel_data.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500"/>
+    <workbookView windowWidth="19635" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="item_class" sheetId="1" r:id="rId1"/>
+    <sheet name="item_subclass" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>itemClass</t>
   </si>
@@ -39,6 +40,12 @@
   </si>
   <si>
     <t>Desserts</t>
+  </si>
+  <si>
+    <t>itemSubclass</t>
+  </si>
+  <si>
+    <t>Coke</t>
   </si>
 </sst>
 </file>
@@ -975,7 +982,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1001,4 +1008,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/cypress/fixtures/excel_data.xlsx
+++ b/cypress/fixtures/excel_data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>itemClass</t>
   </si>
@@ -45,7 +45,13 @@
     <t>itemSubclass</t>
   </si>
   <si>
+    <t>editItemSubclass</t>
+  </si>
+  <si>
     <t>Coke</t>
+  </si>
+  <si>
+    <t>Pineapple Juice</t>
   </si>
 </sst>
 </file>
@@ -1013,27 +1019,39 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/cypress/fixtures/excel_data.xlsx
+++ b/cypress/fixtures/excel_data.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" activeTab="1"/>
+    <workbookView windowWidth="19635" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="item_class" sheetId="1" r:id="rId1"/>
     <sheet name="item_subclass" sheetId="2" r:id="rId2"/>
+    <sheet name="order_type" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>itemClass</t>
   </si>
@@ -46,6 +47,24 @@
   </si>
   <si>
     <t>Coke</t>
+  </si>
+  <si>
+    <t>dineType</t>
+  </si>
+  <si>
+    <t>orderType</t>
+  </si>
+  <si>
+    <t>DINE IN</t>
+  </si>
+  <si>
+    <t>DINEIN</t>
+  </si>
+  <si>
+    <t>TAKE OUT</t>
+  </si>
+  <si>
+    <t>TAKEOUT</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1034,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1041,4 +1060,45 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/cypress/fixtures/excel_data.xlsx
+++ b/cypress/fixtures/excel_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" activeTab="1"/>
+    <workbookView windowWidth="19635" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="item_class" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>itemClass</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Desserts</t>
+  </si>
+  <si>
+    <t>Rice Meals</t>
+  </si>
+  <si>
+    <t>Breakfast Items</t>
   </si>
   <si>
     <t>itemSubclass</t>
@@ -986,13 +992,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1008,6 +1014,14 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1021,21 +1035,21 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1043,13 +1057,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>

--- a/cypress/fixtures/excel_data.xlsx
+++ b/cypress/fixtures/excel_data.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500"/>
+    <workbookView windowWidth="19635" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="item_class" sheetId="1" r:id="rId1"/>
     <sheet name="item_subclass" sheetId="2" r:id="rId2"/>
+    <sheet name="order_type" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>itemClass</t>
   </si>
@@ -58,6 +59,27 @@
   </si>
   <si>
     <t>Pineapple Juice</t>
+  </si>
+  <si>
+    <t>dineType</t>
+  </si>
+  <si>
+    <t>orderType</t>
+  </si>
+  <si>
+    <t>editDineType</t>
+  </si>
+  <si>
+    <t>editOrderType</t>
+  </si>
+  <si>
+    <t>FOODPANDA</t>
+  </si>
+  <si>
+    <t>TAKEOUT</t>
+  </si>
+  <si>
+    <t>GRAB</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1016,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1073,4 +1095,49 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/cypress/fixtures/excel_data.xlsx
+++ b/cypress/fixtures/excel_data.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500"/>
+    <workbookView windowWidth="19635" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="item_class" sheetId="1" r:id="rId1"/>
     <sheet name="item_subclass" sheetId="2" r:id="rId2"/>
+    <sheet name="order_type" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>itemClass</t>
   </si>
@@ -58,6 +59,27 @@
   </si>
   <si>
     <t>Pineapple Juice</t>
+  </si>
+  <si>
+    <t>dineType</t>
+  </si>
+  <si>
+    <t>orderTpe</t>
+  </si>
+  <si>
+    <t>editDineType</t>
+  </si>
+  <si>
+    <t>editOrderType</t>
+  </si>
+  <si>
+    <t>FOODPANDA</t>
+  </si>
+  <si>
+    <t>TAKEOUT</t>
+  </si>
+  <si>
+    <t>GRAB</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1016,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1073,4 +1095,49 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>